--- a/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_gaussian_0.75_0.1.xlsx
+++ b/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_gaussian_0.75_0.1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wudidaizi/Project/approximate_computing/unit/exp/software/sim_coeff_select_final_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A055E92-BA83-1E4B-915A-96B28EB51096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D0D86-7D0D-B94D-BBED-A78853606373}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sim_coeff_selet_gradient_final_" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -946,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,6 +1311,264 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0.125</v>
+      </c>
+      <c r="D10">
+        <v>0.375</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>0.125</v>
+      </c>
+      <c r="I10">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>100000000000000</v>
+      </c>
+      <c r="V10">
+        <v>5.4495000000000002E-2</v>
+      </c>
+      <c r="W10">
+        <v>7.7980000000000002E-3</v>
+      </c>
+      <c r="X10">
+        <v>8.5389999999999997E-3</v>
+      </c>
+      <c r="Y10">
+        <v>8.5679999999999992E-3</v>
+      </c>
+      <c r="Z10">
+        <v>8.5679999999999992E-3</v>
+      </c>
+      <c r="AA10">
+        <v>8.5679999999999992E-3</v>
+      </c>
+      <c r="AB10">
+        <v>8.5679999999999992E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.125</v>
+      </c>
+      <c r="D11">
+        <v>0.375</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>0.125</v>
+      </c>
+      <c r="I11">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>100000000000000</v>
+      </c>
+      <c r="V11">
+        <v>4.5599000000000001E-2</v>
+      </c>
+      <c r="W11">
+        <v>4.5269999999999998E-3</v>
+      </c>
+      <c r="X11">
+        <v>6.9700000000000003E-4</v>
+      </c>
+      <c r="Y11">
+        <v>2.72E-4</v>
+      </c>
+      <c r="Z11">
+        <v>2.72E-4</v>
+      </c>
+      <c r="AA11">
+        <v>2.72E-4</v>
+      </c>
+      <c r="AB11">
+        <v>2.72E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.125</v>
+      </c>
+      <c r="D12">
+        <v>0.375</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>0.125</v>
+      </c>
+      <c r="I12">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>100000000000000</v>
+      </c>
+      <c r="V12">
+        <v>4.5058000000000001E-2</v>
+      </c>
+      <c r="W12">
+        <v>4.9750000000000003E-3</v>
+      </c>
+      <c r="X12">
+        <v>8.9899999999999995E-4</v>
+      </c>
+      <c r="Y12">
+        <v>2.7399999999999999E-4</v>
+      </c>
+      <c r="Z12">
+        <v>2.7399999999999999E-4</v>
+      </c>
+      <c r="AA12">
+        <v>2.7399999999999999E-4</v>
+      </c>
+      <c r="AB12">
+        <v>2.7399999999999999E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_gaussian_0.75_0.1.xlsx
+++ b/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_gaussian_0.75_0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wudidaizi/Project/approximate_computing/unit/exp/software/sim_coeff_select_final_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D0D86-7D0D-B94D-BBED-A78853606373}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE67EDF-D05B-3F4A-831C-E496FDB6EA3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="460" windowWidth="28040" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sim_coeff_selet_gradient_final_" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Bit Width:</t>
   </si>
@@ -107,6 +107,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0.75_0.1</t>
+  </si>
+  <si>
+    <t>0.5_0.1</t>
+  </si>
+  <si>
+    <t>0.25_0.1</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>same poly (best for 8 bit 0.75 0.1) with different input distribution</t>
+  </si>
+  <si>
+    <t>same poly (best for 16 bit 0.75 0.1) with different bit width</t>
+  </si>
+  <si>
+    <t>though good than for 0.75 0.1, it is not the best for 0.5 0.1</t>
+  </si>
+  <si>
+    <t>with appr mul</t>
+  </si>
+  <si>
+    <t>all above are precise mul</t>
   </si>
 </sst>
 </file>
@@ -947,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,6 +1338,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
@@ -1567,6 +1599,380 @@
       </c>
       <c r="AB12">
         <v>2.7399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
+        <v>0.875</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19">
+        <v>-0.125</v>
+      </c>
+      <c r="J19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>100000000000000</v>
+      </c>
+      <c r="V19">
+        <v>0.14902000000000001</v>
+      </c>
+      <c r="W19">
+        <v>3.6343E-2</v>
+      </c>
+      <c r="X19">
+        <v>6.1619999999999999E-3</v>
+      </c>
+      <c r="Y19">
+        <v>9.8270000000000007E-3</v>
+      </c>
+      <c r="Z19">
+        <v>3.424E-3</v>
+      </c>
+      <c r="AA19">
+        <v>2.176E-3</v>
+      </c>
+      <c r="AB19">
+        <v>2.176E-3</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+      <c r="D20">
+        <v>0.875</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+      <c r="I20">
+        <v>-0.125</v>
+      </c>
+      <c r="J20">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K20">
+        <v>3.125E-2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>100000000000000</v>
+      </c>
+      <c r="V20">
+        <v>9.1291999999999998E-2</v>
+      </c>
+      <c r="W20">
+        <v>1.6688000000000001E-2</v>
+      </c>
+      <c r="X20">
+        <v>2.2929999999999999E-3</v>
+      </c>
+      <c r="Y20">
+        <v>2.3670000000000002E-3</v>
+      </c>
+      <c r="Z20">
+        <v>1.199E-3</v>
+      </c>
+      <c r="AA20">
+        <v>1.165E-3</v>
+      </c>
+      <c r="AB20">
+        <v>1.165E-3</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="D21">
+        <v>0.875</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21">
+        <v>-0.125</v>
+      </c>
+      <c r="J21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K21">
+        <v>3.125E-2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>100000000000000</v>
+      </c>
+      <c r="V21">
+        <v>2.9173000000000001E-2</v>
+      </c>
+      <c r="W21">
+        <v>4.5560000000000002E-3</v>
+      </c>
+      <c r="X21">
+        <v>2.1870000000000001E-3</v>
+      </c>
+      <c r="Y21">
+        <v>2.1770000000000001E-3</v>
+      </c>
+      <c r="Z21">
+        <v>2.1679999999999998E-3</v>
+      </c>
+      <c r="AA21">
+        <v>2.1679999999999998E-3</v>
+      </c>
+      <c r="AB21">
+        <v>2.1679999999999998E-3</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0.25</v>
+      </c>
+      <c r="D22">
+        <v>0.875</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0.25</v>
+      </c>
+      <c r="I22">
+        <v>-0.125</v>
+      </c>
+      <c r="J22">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K22">
+        <v>3.125E-2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>100000000000000</v>
+      </c>
+      <c r="V22">
+        <v>7.4496000000000007E-2</v>
+      </c>
+      <c r="W22">
+        <v>1.7056000000000002E-2</v>
+      </c>
+      <c r="X22">
+        <v>4.078E-3</v>
+      </c>
+      <c r="Y22">
+        <v>5.2599999999999999E-3</v>
+      </c>
+      <c r="Z22">
+        <v>3.0509999999999999E-3</v>
+      </c>
+      <c r="AA22">
+        <v>2.624E-3</v>
+      </c>
+      <c r="AB22">
+        <v>2.624E-3</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
